--- a/tactics/checklist.xlsx
+++ b/tactics/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tactics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C362021-ED97-7442-B438-9F8E0EAF430F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257A79C-C900-BB4D-8CF4-42B9E17A8E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{42B81965-FDAD-E64C-BD36-60F63113E6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,9 +305,6 @@
     <t>Hobby Japan</t>
   </si>
   <si>
-    <t>No. 77 Apri 1990</t>
-  </si>
-  <si>
     <t>No. 76 March 1990</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>No. 7 1992 Spring</t>
+  </si>
+  <si>
+    <t>No. 77 April 1990</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF34CDE-1BEC-1543-A985-E6CB5A0E22D2}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,7 +959,7 @@
         <v>1982</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
@@ -974,7 +974,7 @@
         <v>1982</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>89</v>
@@ -989,7 +989,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>89</v>
@@ -1004,7 +1004,7 @@
         <v>1982</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>89</v>
@@ -1019,7 +1019,7 @@
         <v>1982</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>89</v>
@@ -1034,7 +1034,7 @@
         <v>1982</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
@@ -1049,7 +1049,7 @@
         <v>1983</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>89</v>
@@ -1064,7 +1064,7 @@
         <v>1983</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -1079,7 +1079,7 @@
         <v>1983</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>89</v>
@@ -1094,7 +1094,7 @@
         <v>1983</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
@@ -1109,7 +1109,7 @@
         <v>1983</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
@@ -1124,7 +1124,7 @@
         <v>1983</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -1139,7 +1139,7 @@
         <v>1984</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
@@ -1154,7 +1154,7 @@
         <v>1984</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>89</v>
@@ -1169,7 +1169,7 @@
         <v>1984</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>89</v>
@@ -1184,7 +1184,7 @@
         <v>1984</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
@@ -1199,7 +1199,7 @@
         <v>1984</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>89</v>
@@ -1214,7 +1214,7 @@
         <v>1984</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -1229,7 +1229,7 @@
         <v>1985</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
@@ -1244,7 +1244,7 @@
         <v>1985</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -1259,7 +1259,7 @@
         <v>1985</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>89</v>
@@ -1274,7 +1274,7 @@
         <v>1985</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -1289,7 +1289,7 @@
         <v>1985</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
@@ -1304,7 +1304,7 @@
         <v>1985</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
@@ -1319,7 +1319,7 @@
         <v>1985</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
         <v>89</v>
@@ -1334,7 +1334,7 @@
         <v>1986</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
         <v>89</v>
@@ -1349,7 +1349,7 @@
         <v>1986</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
@@ -1364,7 +1364,7 @@
         <v>1986</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
@@ -1379,7 +1379,7 @@
         <v>1986</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -1394,7 +1394,7 @@
         <v>1986</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
         <v>89</v>
@@ -1409,7 +1409,7 @@
         <v>1986</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -1424,7 +1424,7 @@
         <v>1986</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
         <v>89</v>
@@ -1439,7 +1439,7 @@
         <v>1986</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>89</v>
@@ -1454,7 +1454,7 @@
         <v>1986</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>89</v>
@@ -1469,7 +1469,7 @@
         <v>1986</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>89</v>
@@ -1484,7 +1484,7 @@
         <v>1986</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
         <v>89</v>
@@ -1499,7 +1499,7 @@
         <v>1986</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
@@ -1514,7 +1514,7 @@
         <v>1987</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>89</v>
@@ -1529,7 +1529,7 @@
         <v>1987</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>89</v>
@@ -1544,7 +1544,7 @@
         <v>1987</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
@@ -1559,7 +1559,7 @@
         <v>1987</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
         <v>89</v>
@@ -1574,7 +1574,7 @@
         <v>1987</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>89</v>
@@ -1589,7 +1589,7 @@
         <v>1987</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
         <v>89</v>
@@ -1604,7 +1604,7 @@
         <v>1987</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>89</v>
@@ -1619,7 +1619,7 @@
         <v>1987</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>89</v>
@@ -1634,7 +1634,7 @@
         <v>1987</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
         <v>89</v>
@@ -1649,7 +1649,7 @@
         <v>1987</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
         <v>89</v>
@@ -1664,7 +1664,7 @@
         <v>1987</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
         <v>89</v>
@@ -1679,7 +1679,7 @@
         <v>1987</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
         <v>89</v>
@@ -1694,7 +1694,7 @@
         <v>1988</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
         <v>89</v>
@@ -1709,7 +1709,7 @@
         <v>1988</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>89</v>
@@ -1724,7 +1724,7 @@
         <v>1988</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
         <v>89</v>
@@ -1739,7 +1739,7 @@
         <v>1988</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
         <v>89</v>
@@ -1754,7 +1754,7 @@
         <v>1988</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
         <v>89</v>
@@ -1769,7 +1769,7 @@
         <v>1988</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
@@ -1784,7 +1784,7 @@
         <v>1988</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
         <v>89</v>
@@ -1799,7 +1799,7 @@
         <v>1988</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>89</v>
@@ -1814,7 +1814,7 @@
         <v>1988</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>89</v>
@@ -1829,7 +1829,7 @@
         <v>1988</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
         <v>89</v>
@@ -1844,7 +1844,7 @@
         <v>1988</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
@@ -1859,7 +1859,7 @@
         <v>1988</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
         <v>89</v>
@@ -1874,7 +1874,7 @@
         <v>1989</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
         <v>89</v>
@@ -1889,7 +1889,7 @@
         <v>1989</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
         <v>89</v>
@@ -1904,7 +1904,7 @@
         <v>1989</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
         <v>89</v>
@@ -1919,7 +1919,7 @@
         <v>1989</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
         <v>89</v>
@@ -1934,7 +1934,7 @@
         <v>1989</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
         <v>89</v>
@@ -1949,7 +1949,7 @@
         <v>1989</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>89</v>
@@ -1964,7 +1964,7 @@
         <v>1989</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
         <v>89</v>
@@ -1979,7 +1979,7 @@
         <v>1989</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>89</v>
@@ -1994,7 +1994,7 @@
         <v>1989</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
         <v>89</v>
@@ -2009,7 +2009,7 @@
         <v>1989</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>89</v>
@@ -2024,7 +2024,7 @@
         <v>1989</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
         <v>89</v>
@@ -2039,7 +2039,7 @@
         <v>1989</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
         <v>89</v>
@@ -2054,7 +2054,7 @@
         <v>1990</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
         <v>89</v>
@@ -2069,7 +2069,7 @@
         <v>1990</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
         <v>89</v>
@@ -2084,7 +2084,7 @@
         <v>1990</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
         <v>89</v>
@@ -2099,7 +2099,7 @@
         <v>1990</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
         <v>89</v>
@@ -2114,7 +2114,7 @@
         <v>1990</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" t="s">
         <v>89</v>
@@ -2129,7 +2129,7 @@
         <v>1990</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
         <v>89</v>
@@ -2144,7 +2144,7 @@
         <v>1991</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
         <v>89</v>
@@ -2159,7 +2159,7 @@
         <v>1991</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
         <v>89</v>
@@ -2174,7 +2174,7 @@
         <v>1991</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
         <v>89</v>
@@ -2189,7 +2189,7 @@
         <v>1992</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
@@ -2204,7 +2204,7 @@
         <v>1992</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
         <v>89</v>

--- a/tactics/checklist.xlsx
+++ b/tactics/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tactics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257A79C-C900-BB4D-8CF4-42B9E17A8E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C39F7-1D63-E94E-B740-A255F4B62597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{42B81965-FDAD-E64C-BD36-60F63113E6CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="178">
   <si>
     <t>year</t>
   </si>
@@ -555,6 +555,18 @@
   </si>
   <si>
     <t>No. 77 April 1990</t>
+  </si>
+  <si>
+    <t>rpg_special_issue_1.jpg</t>
+  </si>
+  <si>
+    <t>Tactics 別冊 RPG マガジン No. 1</t>
+  </si>
+  <si>
+    <t>Tactics 別冊 RPG マガジン No. 2</t>
+  </si>
+  <si>
+    <t>rpg_special_issue_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -604,9 +616,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF34CDE-1BEC-1543-A985-E6CB5A0E22D2}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1945,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A85" si="1">LEFT(E67, 4)</f>
+        <f t="shared" ref="A67:A86" si="1">LEFT(E67, 4)</f>
         <v>1989</v>
       </c>
       <c r="B67" t="s">
@@ -2211,6 +2226,34 @@
       </c>
       <c r="E85" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/tactics/checklist.xlsx
+++ b/tactics/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tactics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C39F7-1D63-E94E-B740-A255F4B62597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE308A-2247-644B-9495-161098A310FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{42B81965-FDAD-E64C-BD36-60F63113E6CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
     <t>year</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>rpg_special_issue_2.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF34CDE-1BEC-1543-A985-E6CB5A0E22D2}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,7 +957,7 @@
     <col min="5" max="5" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +973,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>LEFT(E2, 4)</f>
         <v>1982</v>
@@ -982,8 +991,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(E3, 4)</f>
         <v>1982</v>
@@ -997,8 +1009,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -1012,8 +1027,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -1027,8 +1045,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -1042,8 +1063,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -1057,8 +1081,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1072,8 +1099,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1087,8 +1117,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1102,8 +1135,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1117,8 +1153,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1132,8 +1171,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -1147,8 +1189,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1162,8 +1207,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1177,8 +1225,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1192,8 +1243,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1207,8 +1261,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1222,8 +1279,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -1237,8 +1297,11 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1252,8 +1315,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1267,8 +1333,11 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1282,8 +1351,11 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1297,8 +1369,11 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1312,8 +1387,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1327,8 +1405,11 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1342,8 +1423,11 @@
       <c r="E26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1357,8 +1441,11 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1372,8 +1459,11 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1387,8 +1477,11 @@
       <c r="E29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1402,8 +1495,11 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1417,8 +1513,11 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1432,8 +1531,11 @@
       <c r="E32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1447,8 +1549,11 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1462,8 +1567,11 @@
       <c r="E34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1477,8 +1585,11 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1492,8 +1603,11 @@
       <c r="E36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1507,8 +1621,11 @@
       <c r="E37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1522,8 +1639,11 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1537,8 +1657,11 @@
       <c r="E39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1552,8 +1675,11 @@
       <c r="E40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1567,8 +1693,11 @@
       <c r="E41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1582,8 +1711,11 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1597,8 +1729,11 @@
       <c r="E43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1612,8 +1747,11 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1627,8 +1765,11 @@
       <c r="E45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1642,8 +1783,11 @@
       <c r="E46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1657,8 +1801,11 @@
       <c r="E47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1672,8 +1819,11 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1687,8 +1837,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1702,8 +1855,11 @@
       <c r="E50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1717,8 +1873,11 @@
       <c r="E51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1732,8 +1891,11 @@
       <c r="E52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1747,8 +1909,11 @@
       <c r="E53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1762,8 +1927,11 @@
       <c r="E54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1777,8 +1945,11 @@
       <c r="E55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1792,8 +1963,11 @@
       <c r="E56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1807,8 +1981,11 @@
       <c r="E57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1822,8 +1999,11 @@
       <c r="E58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1837,8 +2017,11 @@
       <c r="E59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1852,8 +2035,11 @@
       <c r="E60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1867,8 +2053,11 @@
       <c r="E61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1882,8 +2071,11 @@
       <c r="E62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1897,8 +2089,11 @@
       <c r="E63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1912,8 +2107,11 @@
       <c r="E64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1927,8 +2125,11 @@
       <c r="E65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1942,10 +2143,13 @@
       <c r="E66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A86" si="1">LEFT(E67, 4)</f>
+        <f t="shared" ref="A67:A85" si="1">LEFT(E67, 4)</f>
         <v>1989</v>
       </c>
       <c r="B67" t="s">
@@ -1957,8 +2161,11 @@
       <c r="E67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -1972,8 +2179,11 @@
       <c r="E68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -1987,8 +2197,11 @@
       <c r="E69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -2002,8 +2215,11 @@
       <c r="E70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -2017,8 +2233,11 @@
       <c r="E71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -2032,8 +2251,11 @@
       <c r="E72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -2047,8 +2269,11 @@
       <c r="E73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -2062,8 +2287,11 @@
       <c r="E74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2077,8 +2305,11 @@
       <c r="E75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2092,8 +2323,11 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2107,8 +2341,11 @@
       <c r="E77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2122,8 +2359,11 @@
       <c r="E78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2137,8 +2377,11 @@
       <c r="E79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2152,8 +2395,11 @@
       <c r="E80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -2167,8 +2413,11 @@
       <c r="E81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -2182,8 +2431,11 @@
       <c r="E82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -2197,8 +2449,11 @@
       <c r="E83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2212,8 +2467,11 @@
       <c r="E84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2227,8 +2485,11 @@
       <c r="E85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1986</v>
       </c>
@@ -2241,8 +2502,11 @@
       <c r="E86" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>1987</v>
       </c>
@@ -2254,6 +2518,9 @@
       </c>
       <c r="E87" t="s">
         <v>177</v>
+      </c>
+      <c r="F87" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
